--- a/src/test/resources/open/open404.xlsx
+++ b/src/test/resources/open/open404.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\src\test\resources\open\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D612FF-1381-41AA-96E3-7975DA51A91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF40C70-F27F-427A-9D06-704749348096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -59,16 +59,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -78,13 +99,88 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -100,14 +196,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -427,9 +535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -437,23 +543,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
     </row>
